--- a/华夏基金工作日志/工作文件/行情中心数据整理v0.1.xlsx
+++ b/华夏基金工作日志/工作文件/行情中心数据整理v0.1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422">
   <si>
     <t>公共字段</t>
   </si>
@@ -89,6 +89,9 @@
     <t>symbol</t>
   </si>
   <si>
+    <t>mktdt00.txt/cpxxMMDD.txt</t>
+  </si>
+  <si>
     <t>mktdt00.txt</t>
   </si>
   <si>
@@ -158,6 +161,9 @@
     <t>type</t>
   </si>
   <si>
+    <t>shSecurityMatchRule.txt</t>
+  </si>
+  <si>
     <t>FUND</t>
   </si>
   <si>
@@ -411,9 +417,6 @@
   </si>
   <si>
     <t>发行日期</t>
-  </si>
-  <si>
-    <t>ZQXX_YYYYMMDD.xl</t>
   </si>
   <si>
     <t>ZQXX_yyyyMMdd.xls</t>
@@ -1320,9 +1323,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1336,23 +1386,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1373,6 +1408,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1381,46 +1423,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1435,10 +1438,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1451,7 +1454,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1478,7 +1481,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1490,25 +1499,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1526,7 +1529,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1538,19 +1607,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1562,13 +1637,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1580,85 +1655,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1669,6 +1672,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1687,37 +1699,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1746,17 +1738,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1769,6 +1761,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1777,10 +1780,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1789,133 +1792,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2310,9 +2313,11 @@
   <dimension ref="A1:T92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2418,469 +2423,469 @@
         <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="P3" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="P4" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="S6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="P7" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P15" s="9">
         <v>0</v>
@@ -2889,1088 +2894,1087 @@
         <v>0</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="7"/>
+        <v>27</v>
+      </c>
       <c r="P17" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T20" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C22" s="9">
         <v>100</v>
       </c>
       <c r="D22" s="9"/>
       <c r="K22" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S22" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T22" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T24" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O25" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="P25" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q28" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="S28" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="T28" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P29" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="Q29" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="S29" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P29" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q29" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="S29" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="T29" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S49" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="S50" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S51" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S52" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S53" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S54" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S55" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S56" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S57" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S58" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S59" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S60" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S61" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S62" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:19">
       <c r="A64" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S64" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:19">
       <c r="A65" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S65" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S66" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:19">
       <c r="A67" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="S67" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:20">
       <c r="A71" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="T71" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:20">
       <c r="A72" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="T72" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:20">
       <c r="A73" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="T73" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:20">
       <c r="A76" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T76" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:20">
       <c r="A77" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T77" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:20">
       <c r="A78" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T78" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:20">
       <c r="A79" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T79" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:20">
       <c r="A80" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T80" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:20">
       <c r="A81" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T81" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:20">
       <c r="A82" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T82" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:20">
       <c r="A83" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T83" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:20">
       <c r="A84" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T84" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:20">
       <c r="A85" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T85" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:20">
       <c r="A86" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T86" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:20">
       <c r="A87" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T87" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:20">
       <c r="A88" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T88" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:20">
       <c r="A90" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R90" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T90" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="R91" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4008,150 +4012,150 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" t="s">
         <v>216</v>
       </c>
-      <c r="B4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C4" t="s">
-        <v>215</v>
-      </c>
       <c r="D4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" t="s">
         <v>223</v>
-      </c>
-      <c r="B7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D12" s="5">
         <v>100</v>
@@ -4159,13 +4163,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
@@ -4173,112 +4177,112 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>240</v>
+      </c>
+      <c r="B17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E17" t="s">
         <v>239</v>
-      </c>
-      <c r="B17" t="s">
-        <v>240</v>
-      </c>
-      <c r="E17" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E23" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4311,107 +4315,106 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C5"/>
+        <v>262</v>
+      </c>
       <c r="D5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -4447,688 +4450,688 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" t="s">
         <v>275</v>
-      </c>
-      <c r="B4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D4" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B14" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C14" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B15" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B16" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B17" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C17" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B18" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D18" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B19" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B21" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C21" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D21" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B22" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C22" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B23" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C23" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B24" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C24" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D24" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B25" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C25" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D25" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B26" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C26" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D26" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
+        <v>322</v>
+      </c>
+      <c r="B27" t="s">
         <v>321</v>
       </c>
-      <c r="B27" t="s">
-        <v>320</v>
-      </c>
       <c r="C27" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B28" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C28" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D28" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B29" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C29" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D29" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B30" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C30" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D30" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B31" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B32" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C32" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D32" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B33" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C33" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D33" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B34" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C34" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D34" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B35" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C35" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D35" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B36" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C36" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D36" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B37" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C37" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D37" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B38" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D38" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B39" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C39" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D39" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B42" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C42" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D42" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B43" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C43" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D43" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D44" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B45" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C45" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D45" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B46" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C46" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D46" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B47" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C47" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D47" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B48" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C48" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D48" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B49" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C49" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D49" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B50" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C50" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D50" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B51" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C51" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D51" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B52" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C52" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D52" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -5164,83 +5167,83 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D5" t="s">
         <v>369</v>
-      </c>
-      <c r="C5" t="s">
-        <v>367</v>
-      </c>
-      <c r="D5" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -5274,86 +5277,86 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" t="s">
         <v>216</v>
-      </c>
-      <c r="B4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -5386,64 +5389,64 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C4" t="s">
         <v>388</v>
-      </c>
-      <c r="B4" t="s">
-        <v>389</v>
-      </c>
-      <c r="C4" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -5476,163 +5479,163 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
         <v>397</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B11" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B12" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B13" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B14" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B15" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C15" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B16" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C16" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>

--- a/华夏基金工作日志/工作文件/行情中心数据整理v0.1.xlsx
+++ b/华夏基金工作日志/工作文件/行情中心数据整理v0.1.xlsx
@@ -431,7 +431,7 @@
     <t>couponRate</t>
   </si>
   <si>
-    <t>债券气息日期</t>
+    <t>债券起息日期</t>
   </si>
   <si>
     <t>interestAccrualDate</t>
@@ -1294,10 +1294,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1316,13 +1316,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1331,39 +1324,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1378,11 +1355,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1393,17 +1376,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1423,7 +1416,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1431,7 +1424,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1459,8 +1452,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1481,13 +1481,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1499,37 +1499,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1541,43 +1511,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1595,13 +1535,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1613,7 +1553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1625,7 +1565,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1637,31 +1667,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1672,15 +1678,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1699,6 +1696,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1710,15 +1725,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1780,10 +1786,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1792,137 +1798,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1954,6 +1960,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2313,11 +2322,11 @@
   <dimension ref="A1:T92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2443,7 +2452,7 @@
       <c r="J3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>27</v>
       </c>
       <c r="L3" s="7" t="s">
@@ -2505,7 +2514,7 @@
       <c r="J4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>27</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -3129,10 +3138,10 @@
       <c r="M28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P28" s="12" t="s">
+      <c r="P28" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="Q28" s="12" t="s">
+      <c r="Q28" s="13" t="s">
         <v>102</v>
       </c>
       <c r="S28" s="7" t="s">
@@ -3164,10 +3173,10 @@
       <c r="M29" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P29" s="12" t="s">
+      <c r="P29" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="Q29" s="12" t="s">
+      <c r="Q29" s="13" t="s">
         <v>102</v>
       </c>
       <c r="S29" s="7" t="s">
@@ -3369,13 +3378,13 @@
       </c>
     </row>
     <row r="49" spans="1:19">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="11" t="s">
         <v>34</v>
       </c>
       <c r="K49" s="7" t="s">
